--- a/biology/Zoologie/Heliobolus_nitidus/Heliobolus_nitidus.xlsx
+++ b/biology/Zoologie/Heliobolus_nitidus/Heliobolus_nitidus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heliobolus nitidus est une espèce de sauriens de la famille des Lacertidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliobolus nitidus est une espèce de sauriens de la famille des Lacertidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Guinée, en Côte d'Ivoire, au Burkina Faso, au Togo, au Bénin, au Nigeria, au Niger, au Cameroun, au Tchad, en République centrafricaine et dans le nord du Congo-Kinshasa[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Guinée, en Côte d'Ivoire, au Burkina Faso, au Togo, au Bénin, au Nigeria, au Niger, au Cameroun, au Tchad, en République centrafricaine et dans le nord du Congo-Kinshasa.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste de sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (28 avril 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (28 avril 2014) :
 Heliobolus nitidus garambensis (Schmidt, 1919)
 Heliobolus nitidus nitidus (Günther, 1872)
 Heliobolus nitidus quadrinasalis (Chabanaud, 1918)</t>
@@ -575,7 +591,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Chabanaud, 1918 : Étude complémentaire de deux Agama de l'Afrique occidentale et description de quatre espèces nouvelles de reptiles de la même région. Bulletin du Muséum d'Histoire Naturelle, Paris, vol. 24, p. 104-112 (texte intégral).
 Günther, 1872 : Description of three new species of Eremias. Annals and Magazine of Natural History, sér. 4, vol. 9, p. 381-382 (texte intégral).
